--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed4/result_data_KNN.xlsx
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.016</v>
+        <v>6.162999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.686</v>
+        <v>6.862</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>5.752000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.475999999999999</v>
+        <v>8.300999999999998</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.627</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.544999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.475999999999999</v>
+        <v>8.221</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.457</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.434</v>
+        <v>4.973000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
